--- a/data/576/DOS/M700001.xlsx
+++ b/data/576/DOS/M700001.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOS" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,1853 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="614">
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>1971 Jan</t>
-  </si>
-  <si>
-    <t>1971 Feb</t>
-  </si>
-  <si>
-    <t>1971 Mar</t>
-  </si>
-  <si>
-    <t>1971 Apr</t>
-  </si>
-  <si>
-    <t>1971 May</t>
-  </si>
-  <si>
-    <t>1971 Jun</t>
-  </si>
-  <si>
-    <t>1971 Jul</t>
-  </si>
-  <si>
-    <t>1971 Aug</t>
-  </si>
-  <si>
-    <t>1971 Sep</t>
-  </si>
-  <si>
-    <t>1971 Oct</t>
-  </si>
-  <si>
-    <t>1971 Nov</t>
-  </si>
-  <si>
-    <t>1971 Dec</t>
-  </si>
-  <si>
-    <t>1972 Jan</t>
-  </si>
-  <si>
-    <t>1972 Feb</t>
-  </si>
-  <si>
-    <t>1972 Mar</t>
-  </si>
-  <si>
-    <t>1972 Apr</t>
-  </si>
-  <si>
-    <t>1972 May</t>
-  </si>
-  <si>
-    <t>1972 Jun</t>
-  </si>
-  <si>
-    <t>1972 Jul</t>
-  </si>
-  <si>
-    <t>1972 Aug</t>
-  </si>
-  <si>
-    <t>1972 Sep</t>
-  </si>
-  <si>
-    <t>1972 Oct</t>
-  </si>
-  <si>
-    <t>1972 Nov</t>
-  </si>
-  <si>
-    <t>1972 Dec</t>
-  </si>
-  <si>
-    <t>1973 Jan</t>
-  </si>
-  <si>
-    <t>1973 Feb</t>
-  </si>
-  <si>
-    <t>1973 Mar</t>
-  </si>
-  <si>
-    <t>1973 Apr</t>
-  </si>
-  <si>
-    <t>1973 May</t>
-  </si>
-  <si>
-    <t>1973 Jun</t>
-  </si>
-  <si>
-    <t>1973 Jul</t>
-  </si>
-  <si>
-    <t>1973 Aug</t>
-  </si>
-  <si>
-    <t>1973 Sep</t>
-  </si>
-  <si>
-    <t>1973 Oct</t>
-  </si>
-  <si>
-    <t>1973 Nov</t>
-  </si>
-  <si>
-    <t>1973 Dec</t>
-  </si>
-  <si>
-    <t>1974 Jan</t>
-  </si>
-  <si>
-    <t>1974 Feb</t>
-  </si>
-  <si>
-    <t>1974 Mar</t>
-  </si>
-  <si>
-    <t>1974 Apr</t>
-  </si>
-  <si>
-    <t>1974 May</t>
-  </si>
-  <si>
-    <t>1974 Jun</t>
-  </si>
-  <si>
-    <t>1974 Jul</t>
-  </si>
-  <si>
-    <t>1974 Aug</t>
-  </si>
-  <si>
-    <t>1974 Sep</t>
-  </si>
-  <si>
-    <t>1974 Oct</t>
-  </si>
-  <si>
-    <t>1974 Nov</t>
-  </si>
-  <si>
-    <t>1974 Dec</t>
-  </si>
-  <si>
-    <t>1975 Jan</t>
-  </si>
-  <si>
-    <t>1975 Feb</t>
-  </si>
-  <si>
-    <t>1975 Mar</t>
-  </si>
-  <si>
-    <t>1975 Apr</t>
-  </si>
-  <si>
-    <t>1975 May</t>
-  </si>
-  <si>
-    <t>1975 Jun</t>
-  </si>
-  <si>
-    <t>1975 Jul</t>
-  </si>
-  <si>
-    <t>1975 Aug</t>
-  </si>
-  <si>
-    <t>1975 Sep</t>
-  </si>
-  <si>
-    <t>1975 Oct</t>
-  </si>
-  <si>
-    <t>1975 Nov</t>
-  </si>
-  <si>
-    <t>1975 Dec</t>
-  </si>
-  <si>
-    <t>1976 Jan</t>
-  </si>
-  <si>
-    <t>1976 Feb</t>
-  </si>
-  <si>
-    <t>1976 Mar</t>
-  </si>
-  <si>
-    <t>1976 Apr</t>
-  </si>
-  <si>
-    <t>1976 May</t>
-  </si>
-  <si>
-    <t>1976 Jun</t>
-  </si>
-  <si>
-    <t>1976 Jul</t>
-  </si>
-  <si>
-    <t>1976 Aug</t>
-  </si>
-  <si>
-    <t>1976 Sep</t>
-  </si>
-  <si>
-    <t>1976 Oct</t>
-  </si>
-  <si>
-    <t>1976 Nov</t>
-  </si>
-  <si>
-    <t>1976 Dec</t>
-  </si>
-  <si>
-    <t>1977 Jan</t>
-  </si>
-  <si>
-    <t>1977 Feb</t>
-  </si>
-  <si>
-    <t>1977 Mar</t>
-  </si>
-  <si>
-    <t>1977 Apr</t>
-  </si>
-  <si>
-    <t>1977 May</t>
-  </si>
-  <si>
-    <t>1977 Jun</t>
-  </si>
-  <si>
-    <t>1977 Jul</t>
-  </si>
-  <si>
-    <t>1977 Aug</t>
-  </si>
-  <si>
-    <t>1977 Sep</t>
-  </si>
-  <si>
-    <t>1977 Oct</t>
-  </si>
-  <si>
-    <t>1977 Nov</t>
-  </si>
-  <si>
-    <t>1977 Dec</t>
-  </si>
-  <si>
-    <t>1978 Jan</t>
-  </si>
-  <si>
-    <t>1978 Feb</t>
-  </si>
-  <si>
-    <t>1978 Mar</t>
-  </si>
-  <si>
-    <t>1978 Apr</t>
-  </si>
-  <si>
-    <t>1978 May</t>
-  </si>
-  <si>
-    <t>1978 Jun</t>
-  </si>
-  <si>
-    <t>1978 Jul</t>
-  </si>
-  <si>
-    <t>1978 Aug</t>
-  </si>
-  <si>
-    <t>1978 Sep</t>
-  </si>
-  <si>
-    <t>1978 Oct</t>
-  </si>
-  <si>
-    <t>1978 Nov</t>
-  </si>
-  <si>
-    <t>1978 Dec</t>
-  </si>
-  <si>
-    <t>1979 Jan</t>
-  </si>
-  <si>
-    <t>1979 Feb</t>
-  </si>
-  <si>
-    <t>1979 Mar</t>
-  </si>
-  <si>
-    <t>1979 Apr</t>
-  </si>
-  <si>
-    <t>1979 May</t>
-  </si>
-  <si>
-    <t>1979 Jun</t>
-  </si>
-  <si>
-    <t>1979 Jul</t>
-  </si>
-  <si>
-    <t>1979 Aug</t>
-  </si>
-  <si>
-    <t>1979 Sep</t>
-  </si>
-  <si>
-    <t>1979 Oct</t>
-  </si>
-  <si>
-    <t>1979 Nov</t>
-  </si>
-  <si>
-    <t>1979 Dec</t>
-  </si>
-  <si>
-    <t>1980 Jan</t>
-  </si>
-  <si>
-    <t>1980 Feb</t>
-  </si>
-  <si>
-    <t>1980 Mar</t>
-  </si>
-  <si>
-    <t>1980 Apr</t>
-  </si>
-  <si>
-    <t>1980 May</t>
-  </si>
-  <si>
-    <t>1980 Jun</t>
-  </si>
-  <si>
-    <t>1980 Jul</t>
-  </si>
-  <si>
-    <t>1980 Aug</t>
-  </si>
-  <si>
-    <t>1980 Sep</t>
-  </si>
-  <si>
-    <t>1980 Oct</t>
-  </si>
-  <si>
-    <t>1980 Nov</t>
-  </si>
-  <si>
-    <t>1980 Dec</t>
-  </si>
-  <si>
-    <t>1981 Jan</t>
-  </si>
-  <si>
-    <t>1981 Feb</t>
-  </si>
-  <si>
-    <t>1981 Mar</t>
-  </si>
-  <si>
-    <t>1981 Apr</t>
-  </si>
-  <si>
-    <t>1981 May</t>
-  </si>
-  <si>
-    <t>1981 Jun</t>
-  </si>
-  <si>
-    <t>1981 Jul</t>
-  </si>
-  <si>
-    <t>1981 Aug</t>
-  </si>
-  <si>
-    <t>1981 Sep</t>
-  </si>
-  <si>
-    <t>1981 Oct</t>
-  </si>
-  <si>
-    <t>1981 Nov</t>
-  </si>
-  <si>
-    <t>1981 Dec</t>
-  </si>
-  <si>
-    <t>1982 Jan</t>
-  </si>
-  <si>
-    <t>1982 Feb</t>
-  </si>
-  <si>
-    <t>1982 Mar</t>
-  </si>
-  <si>
-    <t>1982 Apr</t>
-  </si>
-  <si>
-    <t>1982 May</t>
-  </si>
-  <si>
-    <t>1982 Jun</t>
-  </si>
-  <si>
-    <t>1982 Jul</t>
-  </si>
-  <si>
-    <t>1982 Aug</t>
-  </si>
-  <si>
-    <t>1982 Sep</t>
-  </si>
-  <si>
-    <t>1982 Oct</t>
-  </si>
-  <si>
-    <t>1982 Nov</t>
-  </si>
-  <si>
-    <t>1982 Dec</t>
-  </si>
-  <si>
-    <t>1983 Jan</t>
-  </si>
-  <si>
-    <t>1983 Feb</t>
-  </si>
-  <si>
-    <t>1983 Mar</t>
-  </si>
-  <si>
-    <t>1983 Apr</t>
-  </si>
-  <si>
-    <t>1983 May</t>
-  </si>
-  <si>
-    <t>1983 Jun</t>
-  </si>
-  <si>
-    <t>1983 Jul</t>
-  </si>
-  <si>
-    <t>1983 Aug</t>
-  </si>
-  <si>
-    <t>1983 Sep</t>
-  </si>
-  <si>
-    <t>1983 Oct</t>
-  </si>
-  <si>
-    <t>1983 Nov</t>
-  </si>
-  <si>
-    <t>1983 Dec</t>
-  </si>
-  <si>
-    <t>1984 Jan</t>
-  </si>
-  <si>
-    <t>1984 Feb</t>
-  </si>
-  <si>
-    <t>1984 Mar</t>
-  </si>
-  <si>
-    <t>1984 Apr</t>
-  </si>
-  <si>
-    <t>1984 May</t>
-  </si>
-  <si>
-    <t>1984 Jun</t>
-  </si>
-  <si>
-    <t>1984 Jul</t>
-  </si>
-  <si>
-    <t>1984 Aug</t>
-  </si>
-  <si>
-    <t>1984 Sep</t>
-  </si>
-  <si>
-    <t>1984 Oct</t>
-  </si>
-  <si>
-    <t>1984 Nov</t>
-  </si>
-  <si>
-    <t>1984 Dec</t>
-  </si>
-  <si>
-    <t>1985 Jan</t>
-  </si>
-  <si>
-    <t>1985 Feb</t>
-  </si>
-  <si>
-    <t>1985 Mar</t>
-  </si>
-  <si>
-    <t>1985 Apr</t>
-  </si>
-  <si>
-    <t>1985 May</t>
-  </si>
-  <si>
-    <t>1985 Jun</t>
-  </si>
-  <si>
-    <t>1985 Jul</t>
-  </si>
-  <si>
-    <t>1985 Aug</t>
-  </si>
-  <si>
-    <t>1985 Sep</t>
-  </si>
-  <si>
-    <t>1985 Oct</t>
-  </si>
-  <si>
-    <t>1985 Nov</t>
-  </si>
-  <si>
-    <t>1985 Dec</t>
-  </si>
-  <si>
-    <t>1986 Jan</t>
-  </si>
-  <si>
-    <t>1986 Feb</t>
-  </si>
-  <si>
-    <t>1986 Mar</t>
-  </si>
-  <si>
-    <t>1986 Apr</t>
-  </si>
-  <si>
-    <t>1986 May</t>
-  </si>
-  <si>
-    <t>1986 Jun</t>
-  </si>
-  <si>
-    <t>1986 Jul</t>
-  </si>
-  <si>
-    <t>1986 Aug</t>
-  </si>
-  <si>
-    <t>1986 Sep</t>
-  </si>
-  <si>
-    <t>1986 Oct</t>
-  </si>
-  <si>
-    <t>1986 Nov</t>
-  </si>
-  <si>
-    <t>1986 Dec</t>
-  </si>
-  <si>
-    <t>1987 Jan</t>
-  </si>
-  <si>
-    <t>1987 Feb</t>
-  </si>
-  <si>
-    <t>1987 Mar</t>
-  </si>
-  <si>
-    <t>1987 Apr</t>
-  </si>
-  <si>
-    <t>1987 May</t>
-  </si>
-  <si>
-    <t>1987 Jun</t>
-  </si>
-  <si>
-    <t>1987 Jul</t>
-  </si>
-  <si>
-    <t>1987 Aug</t>
-  </si>
-  <si>
-    <t>1987 Sep</t>
-  </si>
-  <si>
-    <t>1987 Oct</t>
-  </si>
-  <si>
-    <t>1987 Nov</t>
-  </si>
-  <si>
-    <t>1987 Dec</t>
-  </si>
-  <si>
-    <t>1988 Jan</t>
-  </si>
-  <si>
-    <t>1988 Feb</t>
-  </si>
-  <si>
-    <t>1988 Mar</t>
-  </si>
-  <si>
-    <t>1988 Apr</t>
-  </si>
-  <si>
-    <t>1988 May</t>
-  </si>
-  <si>
-    <t>1988 Jun</t>
-  </si>
-  <si>
-    <t>1988 Jul</t>
-  </si>
-  <si>
-    <t>1988 Aug</t>
-  </si>
-  <si>
-    <t>1988 Sep</t>
-  </si>
-  <si>
-    <t>1988 Oct</t>
-  </si>
-  <si>
-    <t>1988 Nov</t>
-  </si>
-  <si>
-    <t>1988 Dec</t>
-  </si>
-  <si>
-    <t>1989 Jan</t>
-  </si>
-  <si>
-    <t>1989 Feb</t>
-  </si>
-  <si>
-    <t>1989 Mar</t>
-  </si>
-  <si>
-    <t>1989 Apr</t>
-  </si>
-  <si>
-    <t>1989 May</t>
-  </si>
-  <si>
-    <t>1989 Jun</t>
-  </si>
-  <si>
-    <t>1989 Jul</t>
-  </si>
-  <si>
-    <t>1989 Aug</t>
-  </si>
-  <si>
-    <t>1989 Sep</t>
-  </si>
-  <si>
-    <t>1989 Oct</t>
-  </si>
-  <si>
-    <t>1989 Nov</t>
-  </si>
-  <si>
-    <t>1989 Dec</t>
-  </si>
-  <si>
-    <t>1990 Jan</t>
-  </si>
-  <si>
-    <t>1990 Feb</t>
-  </si>
-  <si>
-    <t>1990 Mar</t>
-  </si>
-  <si>
-    <t>1990 Apr</t>
-  </si>
-  <si>
-    <t>1990 May</t>
-  </si>
-  <si>
-    <t>1990 Jun</t>
-  </si>
-  <si>
-    <t>1990 Jul</t>
-  </si>
-  <si>
-    <t>1990 Aug</t>
-  </si>
-  <si>
-    <t>1990 Sep</t>
-  </si>
-  <si>
-    <t>1990 Oct</t>
-  </si>
-  <si>
-    <t>1990 Nov</t>
-  </si>
-  <si>
-    <t>1990 Dec</t>
-  </si>
-  <si>
-    <t>1991 Jan</t>
-  </si>
-  <si>
-    <t>1991 Feb</t>
-  </si>
-  <si>
-    <t>1991 Mar</t>
-  </si>
-  <si>
-    <t>1991 Apr</t>
-  </si>
-  <si>
-    <t>1991 May</t>
-  </si>
-  <si>
-    <t>1991 Jun</t>
-  </si>
-  <si>
-    <t>1991 Jul</t>
-  </si>
-  <si>
-    <t>1991 Aug</t>
-  </si>
-  <si>
-    <t>1991 Sep</t>
-  </si>
-  <si>
-    <t>1991 Oct</t>
-  </si>
-  <si>
-    <t>1991 Nov</t>
-  </si>
-  <si>
-    <t>1991 Dec</t>
-  </si>
-  <si>
-    <t>1992 Jan</t>
-  </si>
-  <si>
-    <t>1992 Feb</t>
-  </si>
-  <si>
-    <t>1992 Mar</t>
-  </si>
-  <si>
-    <t>1992 Apr</t>
-  </si>
-  <si>
-    <t>1992 May</t>
-  </si>
-  <si>
-    <t>1992 Jun</t>
-  </si>
-  <si>
-    <t>1992 Jul</t>
-  </si>
-  <si>
-    <t>1992 Aug</t>
-  </si>
-  <si>
-    <t>1992 Sep</t>
-  </si>
-  <si>
-    <t>1992 Oct</t>
-  </si>
-  <si>
-    <t>1992 Nov</t>
-  </si>
-  <si>
-    <t>1992 Dec</t>
-  </si>
-  <si>
-    <t>1993 Jan</t>
-  </si>
-  <si>
-    <t>1993 Feb</t>
-  </si>
-  <si>
-    <t>1993 Mar</t>
-  </si>
-  <si>
-    <t>1993 Apr</t>
-  </si>
-  <si>
-    <t>1993 May</t>
-  </si>
-  <si>
-    <t>1993 Jun</t>
-  </si>
-  <si>
-    <t>1993 Jul</t>
-  </si>
-  <si>
-    <t>1993 Aug</t>
-  </si>
-  <si>
-    <t>1993 Sep</t>
-  </si>
-  <si>
-    <t>1993 Oct</t>
-  </si>
-  <si>
-    <t>1993 Nov</t>
-  </si>
-  <si>
-    <t>1993 Dec</t>
-  </si>
-  <si>
-    <t>1994 Jan</t>
-  </si>
-  <si>
-    <t>1994 Feb</t>
-  </si>
-  <si>
-    <t>1994 Mar</t>
-  </si>
-  <si>
-    <t>1994 Apr</t>
-  </si>
-  <si>
-    <t>1994 May</t>
-  </si>
-  <si>
-    <t>1994 Jun</t>
-  </si>
-  <si>
-    <t>1994 Jul</t>
-  </si>
-  <si>
-    <t>1994 Aug</t>
-  </si>
-  <si>
-    <t>1994 Sep</t>
-  </si>
-  <si>
-    <t>1994 Oct</t>
-  </si>
-  <si>
-    <t>1994 Nov</t>
-  </si>
-  <si>
-    <t>1994 Dec</t>
-  </si>
-  <si>
-    <t>1995 Jan</t>
-  </si>
-  <si>
-    <t>1995 Feb</t>
-  </si>
-  <si>
-    <t>1995 Mar</t>
-  </si>
-  <si>
-    <t>1995 Apr</t>
-  </si>
-  <si>
-    <t>1995 May</t>
-  </si>
-  <si>
-    <t>1995 Jun</t>
-  </si>
-  <si>
-    <t>1995 Jul</t>
-  </si>
-  <si>
-    <t>1995 Aug</t>
-  </si>
-  <si>
-    <t>1995 Sep</t>
-  </si>
-  <si>
-    <t>1995 Oct</t>
-  </si>
-  <si>
-    <t>1995 Nov</t>
-  </si>
-  <si>
-    <t>1995 Dec</t>
-  </si>
-  <si>
-    <t>1996 Jan</t>
-  </si>
-  <si>
-    <t>1996 Feb</t>
-  </si>
-  <si>
-    <t>1996 Mar</t>
-  </si>
-  <si>
-    <t>1996 Apr</t>
-  </si>
-  <si>
-    <t>1996 May</t>
-  </si>
-  <si>
-    <t>1996 Jun</t>
-  </si>
-  <si>
-    <t>1996 Jul</t>
-  </si>
-  <si>
-    <t>1996 Aug</t>
-  </si>
-  <si>
-    <t>1996 Sep</t>
-  </si>
-  <si>
-    <t>1996 Oct</t>
-  </si>
-  <si>
-    <t>1996 Nov</t>
-  </si>
-  <si>
-    <t>1996 Dec</t>
-  </si>
-  <si>
-    <t>1997 Jan</t>
-  </si>
-  <si>
-    <t>1997 Feb</t>
-  </si>
-  <si>
-    <t>1997 Mar</t>
-  </si>
-  <si>
-    <t>1997 Apr</t>
-  </si>
-  <si>
-    <t>1997 May</t>
-  </si>
-  <si>
-    <t>1997 Jun</t>
-  </si>
-  <si>
-    <t>1997 Jul</t>
-  </si>
-  <si>
-    <t>1997 Aug</t>
-  </si>
-  <si>
-    <t>1997 Sep</t>
-  </si>
-  <si>
-    <t>1997 Oct</t>
-  </si>
-  <si>
-    <t>1997 Nov</t>
-  </si>
-  <si>
-    <t>1997 Dec</t>
-  </si>
-  <si>
-    <t>1998 Jan</t>
-  </si>
-  <si>
-    <t>1998 Feb</t>
-  </si>
-  <si>
-    <t>1998 Mar</t>
-  </si>
-  <si>
-    <t>1998 Apr</t>
-  </si>
-  <si>
-    <t>1998 May</t>
-  </si>
-  <si>
-    <t>1998 Jun</t>
-  </si>
-  <si>
-    <t>1998 Jul</t>
-  </si>
-  <si>
-    <t>1998 Aug</t>
-  </si>
-  <si>
-    <t>1998 Sep</t>
-  </si>
-  <si>
-    <t>1998 Oct</t>
-  </si>
-  <si>
-    <t>1998 Nov</t>
-  </si>
-  <si>
-    <t>1998 Dec</t>
-  </si>
-  <si>
-    <t>1999 Jan</t>
-  </si>
-  <si>
-    <t>1999 Feb</t>
-  </si>
-  <si>
-    <t>1999 Mar</t>
-  </si>
-  <si>
-    <t>1999 Apr</t>
-  </si>
-  <si>
-    <t>1999 May</t>
-  </si>
-  <si>
-    <t>1999 Jun</t>
-  </si>
-  <si>
-    <t>1999 Jul</t>
-  </si>
-  <si>
-    <t>1999 Aug</t>
-  </si>
-  <si>
-    <t>1999 Sep</t>
-  </si>
-  <si>
-    <t>1999 Oct</t>
-  </si>
-  <si>
-    <t>1999 Nov</t>
-  </si>
-  <si>
-    <t>1999 Dec</t>
-  </si>
-  <si>
-    <t>2000 Jan</t>
-  </si>
-  <si>
-    <t>2000 Feb</t>
-  </si>
-  <si>
-    <t>2000 Mar</t>
-  </si>
-  <si>
-    <t>2000 Apr</t>
-  </si>
-  <si>
-    <t>2000 May</t>
-  </si>
-  <si>
-    <t>2000 Jun</t>
-  </si>
-  <si>
-    <t>2000 Jul</t>
-  </si>
-  <si>
-    <t>2000 Aug</t>
-  </si>
-  <si>
-    <t>2000 Sep</t>
-  </si>
-  <si>
-    <t>2000 Oct</t>
-  </si>
-  <si>
-    <t>2000 Nov</t>
-  </si>
-  <si>
-    <t>2000 Dec</t>
-  </si>
-  <si>
-    <t>2001 Jan</t>
-  </si>
-  <si>
-    <t>2001 Feb</t>
-  </si>
-  <si>
-    <t>2001 Mar</t>
-  </si>
-  <si>
-    <t>2001 Apr</t>
-  </si>
-  <si>
-    <t>2001 May</t>
-  </si>
-  <si>
-    <t>2001 Jun</t>
-  </si>
-  <si>
-    <t>2001 Jul</t>
-  </si>
-  <si>
-    <t>2001 Aug</t>
-  </si>
-  <si>
-    <t>2001 Sep</t>
-  </si>
-  <si>
-    <t>2001 Oct</t>
-  </si>
-  <si>
-    <t>2001 Nov</t>
-  </si>
-  <si>
-    <t>2001 Dec</t>
-  </si>
-  <si>
-    <t>2002 Jan</t>
-  </si>
-  <si>
-    <t>2002 Feb</t>
-  </si>
-  <si>
-    <t>2002 Mar</t>
-  </si>
-  <si>
-    <t>2002 Apr</t>
-  </si>
-  <si>
-    <t>2002 May</t>
-  </si>
-  <si>
-    <t>2002 Jun</t>
-  </si>
-  <si>
-    <t>2002 Jul</t>
-  </si>
-  <si>
-    <t>2002 Aug</t>
-  </si>
-  <si>
-    <t>2002 Sep</t>
-  </si>
-  <si>
-    <t>2002 Oct</t>
-  </si>
-  <si>
-    <t>2002 Nov</t>
-  </si>
-  <si>
-    <t>2002 Dec</t>
-  </si>
-  <si>
-    <t>2003 Jan</t>
-  </si>
-  <si>
-    <t>2003 Feb</t>
-  </si>
-  <si>
-    <t>2003 Mar</t>
-  </si>
-  <si>
-    <t>2003 Apr</t>
-  </si>
-  <si>
-    <t>2003 May</t>
-  </si>
-  <si>
-    <t>2003 Jun</t>
-  </si>
-  <si>
-    <t>2003 Jul</t>
-  </si>
-  <si>
-    <t>2003 Aug</t>
-  </si>
-  <si>
-    <t>2003 Sep</t>
-  </si>
-  <si>
-    <t>2003 Oct</t>
-  </si>
-  <si>
-    <t>2003 Nov</t>
-  </si>
-  <si>
-    <t>2003 Dec</t>
-  </si>
-  <si>
-    <t>2004 Jan</t>
-  </si>
-  <si>
-    <t>2004 Feb</t>
-  </si>
-  <si>
-    <t>2004 Mar</t>
-  </si>
-  <si>
-    <t>2004 Apr</t>
-  </si>
-  <si>
-    <t>2004 May</t>
-  </si>
-  <si>
-    <t>2004 Jun</t>
-  </si>
-  <si>
-    <t>2004 Jul</t>
-  </si>
-  <si>
-    <t>2004 Aug</t>
-  </si>
-  <si>
-    <t>2004 Sep</t>
-  </si>
-  <si>
-    <t>2004 Oct</t>
-  </si>
-  <si>
-    <t>2004 Nov</t>
-  </si>
-  <si>
-    <t>2004 Dec</t>
-  </si>
-  <si>
-    <t>2005 Jan</t>
-  </si>
-  <si>
-    <t>2005 Feb</t>
-  </si>
-  <si>
-    <t>2005 Mar</t>
-  </si>
-  <si>
-    <t>2005 Apr</t>
-  </si>
-  <si>
-    <t>2005 May</t>
-  </si>
-  <si>
-    <t>2005 Jun</t>
-  </si>
-  <si>
-    <t>2005 Jul</t>
-  </si>
-  <si>
-    <t>2005 Aug</t>
-  </si>
-  <si>
-    <t>2005 Sep</t>
-  </si>
-  <si>
-    <t>2005 Oct</t>
-  </si>
-  <si>
-    <t>2005 Nov</t>
-  </si>
-  <si>
-    <t>2005 Dec</t>
-  </si>
-  <si>
-    <t>2006 Jan</t>
-  </si>
-  <si>
-    <t>2006 Feb</t>
-  </si>
-  <si>
-    <t>2006 Mar</t>
-  </si>
-  <si>
-    <t>2006 Apr</t>
-  </si>
-  <si>
-    <t>2006 May</t>
-  </si>
-  <si>
-    <t>2006 Jun</t>
-  </si>
-  <si>
-    <t>2006 Jul</t>
-  </si>
-  <si>
-    <t>2006 Aug</t>
-  </si>
-  <si>
-    <t>2006 Sep</t>
-  </si>
-  <si>
-    <t>2006 Oct</t>
-  </si>
-  <si>
-    <t>2006 Nov</t>
-  </si>
-  <si>
-    <t>2006 Dec</t>
-  </si>
-  <si>
-    <t>2007 Jan</t>
-  </si>
-  <si>
-    <t>2007 Feb</t>
-  </si>
-  <si>
-    <t>2007 Mar</t>
-  </si>
-  <si>
-    <t>2007 Apr</t>
-  </si>
-  <si>
-    <t>2007 May</t>
-  </si>
-  <si>
-    <t>2007 Jun</t>
-  </si>
-  <si>
-    <t>2007 Jul</t>
-  </si>
-  <si>
-    <t>2007 Aug</t>
-  </si>
-  <si>
-    <t>2007 Sep</t>
-  </si>
-  <si>
-    <t>2007 Oct</t>
-  </si>
-  <si>
-    <t>2007 Nov</t>
-  </si>
-  <si>
-    <t>2007 Dec</t>
-  </si>
-  <si>
-    <t>2008 Jan</t>
-  </si>
-  <si>
-    <t>2008 Feb</t>
-  </si>
-  <si>
-    <t>2008 Mar</t>
-  </si>
-  <si>
-    <t>2008 Apr</t>
-  </si>
-  <si>
-    <t>2008 May</t>
-  </si>
-  <si>
-    <t>2008 Jun</t>
-  </si>
-  <si>
-    <t>2008 Jul</t>
-  </si>
-  <si>
-    <t>2008 Aug</t>
-  </si>
-  <si>
-    <t>2008 Sep</t>
-  </si>
-  <si>
-    <t>2008 Oct</t>
-  </si>
-  <si>
-    <t>2008 Nov</t>
-  </si>
-  <si>
-    <t>2008 Dec</t>
-  </si>
-  <si>
-    <t>2009 Jan</t>
-  </si>
-  <si>
-    <t>2009 Feb</t>
-  </si>
-  <si>
-    <t>2009 Mar</t>
-  </si>
-  <si>
-    <t>2009 Apr</t>
-  </si>
-  <si>
-    <t>2009 May</t>
-  </si>
-  <si>
-    <t>2009 Jun</t>
-  </si>
-  <si>
-    <t>2009 Jul</t>
-  </si>
-  <si>
-    <t>2009 Aug</t>
-  </si>
-  <si>
-    <t>2009 Sep</t>
-  </si>
-  <si>
-    <t>2009 Oct</t>
-  </si>
-  <si>
-    <t>2009 Nov</t>
-  </si>
-  <si>
-    <t>2009 Dec</t>
-  </si>
-  <si>
-    <t>2010 Jan</t>
-  </si>
-  <si>
-    <t>2010 Feb</t>
-  </si>
-  <si>
-    <t>2010 Mar</t>
-  </si>
-  <si>
-    <t>2010 Apr</t>
-  </si>
-  <si>
-    <t>2010 May</t>
-  </si>
-  <si>
-    <t>2010 Jun</t>
-  </si>
-  <si>
-    <t>2010 Jul</t>
-  </si>
-  <si>
-    <t>2010 Aug</t>
-  </si>
-  <si>
-    <t>2010 Sep</t>
-  </si>
-  <si>
-    <t>2010 Oct</t>
-  </si>
-  <si>
-    <t>2010 Nov</t>
-  </si>
-  <si>
-    <t>2010 Dec</t>
-  </si>
-  <si>
-    <t>2011 Jan</t>
-  </si>
-  <si>
-    <t>2011 Feb</t>
-  </si>
-  <si>
-    <t>2011 Mar</t>
-  </si>
-  <si>
-    <t>2011 Apr</t>
-  </si>
-  <si>
-    <t>2011 May</t>
-  </si>
-  <si>
-    <t>2011 Jun</t>
-  </si>
-  <si>
-    <t>2011 Jul</t>
-  </si>
-  <si>
-    <t>2011 Aug</t>
-  </si>
-  <si>
-    <t>2011 Sep</t>
-  </si>
-  <si>
-    <t>2011 Oct</t>
-  </si>
-  <si>
-    <t>2011 Nov</t>
-  </si>
-  <si>
-    <t>2011 Dec</t>
-  </si>
-  <si>
-    <t>2012 Jan</t>
-  </si>
-  <si>
-    <t>2012 Feb</t>
-  </si>
-  <si>
-    <t>2012 Mar</t>
-  </si>
-  <si>
-    <t>2012 Apr</t>
-  </si>
-  <si>
-    <t>2012 May</t>
-  </si>
-  <si>
-    <t>2012 Jun</t>
-  </si>
-  <si>
-    <t>2012 Jul</t>
-  </si>
-  <si>
-    <t>2012 Aug</t>
-  </si>
-  <si>
-    <t>2012 Sep</t>
-  </si>
-  <si>
-    <t>2012 Oct</t>
-  </si>
-  <si>
-    <t>2012 Nov</t>
-  </si>
-  <si>
-    <t>2012 Dec</t>
-  </si>
-  <si>
-    <t>2013 Jan</t>
-  </si>
-  <si>
-    <t>2013 Feb</t>
-  </si>
-  <si>
-    <t>2013 Mar</t>
-  </si>
-  <si>
-    <t>2013 Apr</t>
-  </si>
-  <si>
-    <t>2013 May</t>
-  </si>
-  <si>
-    <t>2013 Jun</t>
-  </si>
-  <si>
-    <t>2013 Jul</t>
-  </si>
-  <si>
-    <t>2013 Aug</t>
-  </si>
-  <si>
-    <t>2013 Sep</t>
-  </si>
-  <si>
-    <t>2013 Oct</t>
-  </si>
-  <si>
-    <t>2013 Nov</t>
-  </si>
-  <si>
-    <t>2013 Dec</t>
-  </si>
-  <si>
-    <t>2014 Jan</t>
-  </si>
-  <si>
-    <t>2014 Feb</t>
-  </si>
-  <si>
-    <t>2014 Mar</t>
-  </si>
-  <si>
-    <t>2014 Apr</t>
-  </si>
-  <si>
-    <t>2014 May</t>
-  </si>
-  <si>
-    <t>2014 Jun</t>
-  </si>
-  <si>
-    <t>2014 Jul</t>
-  </si>
-  <si>
-    <t>2014 Aug</t>
-  </si>
-  <si>
-    <t>2014 Sep</t>
-  </si>
-  <si>
-    <t>2014 Oct</t>
-  </si>
-  <si>
-    <t>2014 Nov</t>
-  </si>
-  <si>
-    <t>2014 Dec</t>
-  </si>
-  <si>
-    <t>2015 Jan</t>
-  </si>
-  <si>
-    <t>2015 Feb</t>
-  </si>
-  <si>
-    <t>2015 Mar</t>
-  </si>
-  <si>
-    <t>2015 Apr</t>
-  </si>
-  <si>
-    <t>2015 May</t>
-  </si>
-  <si>
-    <t>2015 Jun</t>
-  </si>
-  <si>
-    <t>2015 Jul</t>
-  </si>
-  <si>
-    <t>2015 Aug</t>
-  </si>
-  <si>
-    <t>2015 Sep</t>
-  </si>
-  <si>
-    <t>2015 Oct</t>
-  </si>
-  <si>
-    <t>2015 Nov</t>
-  </si>
-  <si>
-    <t>2015 Dec</t>
-  </si>
-  <si>
-    <t>2016 Jan</t>
-  </si>
-  <si>
-    <t>2016 Feb</t>
-  </si>
-  <si>
-    <t>2016 Mar</t>
-  </si>
-  <si>
-    <t>2016 Apr</t>
-  </si>
-  <si>
-    <t>2016 May</t>
-  </si>
-  <si>
-    <t>2016 Jun</t>
-  </si>
-  <si>
-    <t>2016 Jul</t>
-  </si>
-  <si>
-    <t>2016 Aug</t>
-  </si>
-  <si>
-    <t>2016 Sep</t>
-  </si>
-  <si>
-    <t>2016 Oct</t>
-  </si>
-  <si>
-    <t>2016 Nov</t>
-  </si>
-  <si>
-    <t>2016 Dec</t>
-  </si>
-  <si>
-    <t>2017 Jan</t>
-  </si>
-  <si>
-    <t>2017 Feb</t>
-  </si>
-  <si>
-    <t>2017 Mar</t>
-  </si>
-  <si>
-    <t>2017 Apr</t>
-  </si>
-  <si>
-    <t>2017 May</t>
-  </si>
-  <si>
-    <t>2017 Jun</t>
-  </si>
-  <si>
-    <t>2017 Jul</t>
-  </si>
-  <si>
-    <t>2017 Aug</t>
-  </si>
-  <si>
-    <t>2017 Sep</t>
-  </si>
-  <si>
-    <t>2017 Oct</t>
-  </si>
-  <si>
-    <t>2017 Nov</t>
-  </si>
-  <si>
-    <t>2017 Dec</t>
-  </si>
-  <si>
-    <t>2018 Jan</t>
-  </si>
-  <si>
-    <t>2018 Feb</t>
-  </si>
-  <si>
-    <t>2018 Mar</t>
-  </si>
-  <si>
-    <t>2018 Apr</t>
-  </si>
-  <si>
-    <t>2018 May</t>
-  </si>
-  <si>
-    <t>2018 Jun</t>
-  </si>
-  <si>
-    <t>2018 Jul</t>
-  </si>
-  <si>
-    <t>2018 Aug</t>
-  </si>
-  <si>
-    <t>2018 Sep</t>
-  </si>
-  <si>
-    <t>2018 Oct</t>
-  </si>
-  <si>
-    <t>2018 Nov</t>
-  </si>
-  <si>
-    <t>2018 Dec</t>
-  </si>
-  <si>
-    <t>2019 Jan</t>
-  </si>
-  <si>
-    <t>2019 Feb</t>
-  </si>
-  <si>
-    <t>2019 Mar</t>
-  </si>
-  <si>
-    <t>2019 Apr</t>
-  </si>
-  <si>
-    <t>2019 May</t>
-  </si>
-  <si>
-    <t>2019 Jun</t>
-  </si>
-  <si>
-    <t>2019 Jul</t>
-  </si>
-  <si>
-    <t>2019 Aug</t>
-  </si>
-  <si>
-    <t>2019 Sep</t>
-  </si>
-  <si>
-    <t>2019 Oct</t>
-  </si>
-  <si>
-    <t>2019 Nov</t>
-  </si>
-  <si>
-    <t>2019 Dec</t>
-  </si>
-  <si>
-    <t>2020 Jan</t>
-  </si>
-  <si>
-    <t>2020 Feb</t>
-  </si>
-  <si>
-    <t>2020 Mar</t>
-  </si>
-  <si>
-    <t>2020 Apr</t>
-  </si>
-  <si>
-    <t>2020 May</t>
-  </si>
-  <si>
-    <t>2020 Jun</t>
-  </si>
-  <si>
-    <t>2020 Jul</t>
-  </si>
-  <si>
-    <t>2020 Aug</t>
-  </si>
-  <si>
-    <t>2020 Sep</t>
-  </si>
-  <si>
-    <t>2020 Oct</t>
-  </si>
-  <si>
-    <t>2020 Nov</t>
-  </si>
-  <si>
-    <t>2020 Dec</t>
-  </si>
-  <si>
-    <t>2021 Jan</t>
-  </si>
-  <si>
-    <t>2021 Feb</t>
-  </si>
-  <si>
-    <t>2021 Mar</t>
-  </si>
-  <si>
-    <t>2021 Apr</t>
-  </si>
-  <si>
-    <t>2021 May</t>
-  </si>
-  <si>
-    <t>2021 Jun</t>
-  </si>
-  <si>
-    <t>2021 Jul</t>
-  </si>
-  <si>
-    <t>2021 Aug</t>
-  </si>
-  <si>
-    <t>2021 Sep</t>
-  </si>
-  <si>
-    <t>2021 Oct</t>
-  </si>
-  <si>
-    <t>Gross Circulation</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Coins</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2205,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:WM4"/>
+  <dimension ref="A1:WP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2213,1844 +366,3083 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:611">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="KA1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="KB1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="KC1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="KD1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="KE1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="KF1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="KG1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="KH1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="KI1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="KJ1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="KK1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="KL1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="KM1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="KN1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="KO1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="KP1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="KQ1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="KR1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="KS1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="KT1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="KU1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="KV1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="KW1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="KX1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="KY1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="KZ1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="LA1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="LB1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="LC1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="LD1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="LE1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="LF1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="LG1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="LH1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="LI1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="LJ1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="LK1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="LL1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="LM1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="LN1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="LO1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="LP1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="LQ1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="LR1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="LS1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="LT1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="LU1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="LV1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="LW1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="LX1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="LY1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="LZ1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="MA1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="MB1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="MC1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="MD1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="ME1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="MF1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="MG1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="MH1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="MI1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="MJ1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="MK1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="ML1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="MM1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="MN1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="MO1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="MP1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="MQ1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="MR1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="MS1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="MT1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="MU1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="MV1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="MW1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="MX1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="MY1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="MZ1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="NA1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="NB1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="NC1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="ND1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="NE1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="NF1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="NG1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="NH1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="NI1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="NJ1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="NK1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="NL1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="NM1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="NN1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="NO1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="NP1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="NQ1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="NR1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="NS1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="NT1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="NU1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="NV1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="NW1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="NX1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="NY1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="NZ1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="OA1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="OB1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="OC1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="OD1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="OE1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="OF1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="OG1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="OH1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="OI1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="OJ1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="OK1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="OL1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="OM1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="ON1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="OO1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="OP1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="OQ1" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="OR1" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="OS1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="OT1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="OU1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="OV1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="OW1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="OX1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="OY1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="OZ1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="PA1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="PB1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="PC1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="PD1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="PE1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="PF1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="PG1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="PH1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="PI1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="PJ1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="PK1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="PL1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="PM1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="PN1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="PO1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="PP1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="PQ1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="PR1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="PS1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="PT1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="PU1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="PV1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="PW1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="PX1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="PY1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="PZ1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="QA1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="QB1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="QC1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="QD1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="QE1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="QF1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="QG1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="QH1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="QI1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="QJ1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="QK1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="QL1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="QM1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="QN1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="QO1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="QP1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="QQ1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="QR1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="QS1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="QT1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="QU1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="QV1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="QW1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="QX1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="QY1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="QZ1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="RA1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="RB1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="RC1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="RD1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="RE1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="RF1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="RG1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="RH1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="RI1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="RJ1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="RK1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="RL1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="RM1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="RN1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="RO1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="RP1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="RQ1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="RR1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="RS1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="RT1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="RU1" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="RV1" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="RW1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="RX1" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="RY1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="RZ1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="SA1" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="SB1" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="SC1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="SD1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="SE1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="SF1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="SG1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="SH1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="SI1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="SJ1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="SK1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="SL1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="SM1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="SN1" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="SO1" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="SP1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="SQ1" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="SR1" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="SS1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="ST1" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="SU1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="SV1" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="SW1" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="SX1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="SY1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="SZ1" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="TA1" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="TB1" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="TC1" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="TD1" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="TE1" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="TF1" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="TG1" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="TH1" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="TI1" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="TJ1" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="TK1" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="TL1" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="TM1" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="TN1" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="TO1" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="TP1" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="TQ1" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="TR1" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="TS1" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="TT1" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="TU1" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="TV1" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="TW1" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="TX1" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="TY1" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="TZ1" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="UA1" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="UB1" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="UC1" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="UD1" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="UE1" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="UF1" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="UG1" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="UH1" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="UI1" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="UJ1" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="UK1" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="UL1" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="UM1" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="UN1" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="UO1" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="UP1" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="UQ1" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="UR1" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="US1" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="UT1" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="UU1" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="UV1" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="UW1" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="UX1" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="UY1" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="UZ1" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="VA1" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="VB1" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="VC1" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="VD1" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="VE1" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="VF1" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="VG1" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="VH1" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="VI1" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="VJ1" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="VK1" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="VL1" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="VM1" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="VN1" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="VO1" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="VP1" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="VQ1" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="VR1" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="VS1" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="VT1" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="VU1" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="VV1" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="VW1" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="VX1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="VY1" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="VZ1" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="WA1" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="WB1" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="WC1" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="WD1" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="WE1" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="WF1" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="WG1" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="WH1" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="WI1" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="WJ1" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="WK1" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="WL1" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="WM1" s="1" t="s">
-        <v>610</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1971 Jan</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1971 Feb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1971 Mar</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1971 Apr</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1971 May</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1971 Jun</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1971 Jul</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1971 Aug</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1971 Sep</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1971 Oct</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1971 Nov</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1971 Dec</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1972 Jan</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1972 Feb</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1972 Mar</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1972 Apr</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1972 May</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1972 Jun</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1972 Jul</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1972 Aug</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1972 Sep</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1972 Oct</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1972 Nov</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1972 Dec</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1973 Jan</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1973 Feb</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1973 Mar</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1973 Apr</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1973 May</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1973 Jun</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1973 Jul</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1973 Aug</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1973 Sep</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1973 Oct</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1973 Nov</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1973 Dec</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1974 Jan</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1974 Feb</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1974 Mar</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1974 Apr</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1974 May</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1974 Jun</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1974 Jul</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1974 Aug</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1974 Sep</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1974 Oct</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1974 Nov</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1974 Dec</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1975 Jan</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1975 Feb</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1975 Mar</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1975 Apr</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1975 May</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1975 Jun</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1975 Jul</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1975 Aug</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1975 Sep</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1975 Oct</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1975 Nov</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1975 Dec</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1976 Jan</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1976 Feb</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1976 Mar</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1976 Apr</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1976 May</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1976 Jun</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1976 Jul</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1976 Aug</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1976 Sep</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1976 Oct</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1976 Nov</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1976 Dec</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1977 Jan</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1977 Feb</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1977 Mar</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1977 Apr</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>1977 May</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>1977 Jun</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>1977 Jul</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>1977 Aug</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>1977 Sep</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>1977 Oct</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>1977 Nov</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>1977 Dec</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>1978 Jan</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>1978 Feb</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>1978 Mar</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>1978 Apr</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>1978 May</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>1978 Jun</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>1978 Jul</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>1978 Aug</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>1978 Sep</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>1978 Oct</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>1978 Nov</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>1978 Dec</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>1979 Jan</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>1979 Feb</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>1979 Mar</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>1979 Apr</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>1979 May</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>1979 Jun</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>1979 Jul</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>1979 Aug</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>1979 Sep</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>1979 Oct</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>1979 Nov</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>1979 Dec</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>1980 Jan</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>1980 Feb</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>1980 Mar</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>1980 Apr</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>1980 May</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>1980 Jun</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>1980 Jul</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>1980 Aug</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>1980 Sep</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>1980 Oct</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>1980 Nov</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>1980 Dec</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>1981 Jan</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>1981 Feb</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>1981 Mar</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>1981 Apr</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>1981 May</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>1981 Jun</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>1981 Jul</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>1981 Aug</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>1981 Sep</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>1981 Oct</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>1981 Nov</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>1981 Dec</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>1982 Jan</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>1982 Feb</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>1982 Mar</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>1982 Apr</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>1982 May</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>1982 Jun</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>1982 Jul</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>1982 Aug</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>1982 Sep</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>1982 Oct</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>1982 Nov</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>1982 Dec</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>1983 Jan</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>1983 Feb</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>1983 Mar</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>1983 Apr</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>1983 May</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>1983 Jun</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>1983 Jul</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>1983 Aug</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>1983 Sep</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>1983 Oct</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>1983 Nov</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>1983 Dec</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>1984 Jan</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>1984 Feb</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>1984 Mar</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>1984 Apr</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>1984 May</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>1984 Jun</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>1984 Jul</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>1984 Aug</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>1984 Sep</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>1984 Oct</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>1984 Nov</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>1984 Dec</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>1985 Jan</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>1985 Feb</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>1985 Mar</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>1985 Apr</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>1985 May</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>1985 Jun</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>1985 Jul</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>1985 Aug</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>1985 Sep</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>1985 Oct</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>1985 Nov</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>1985 Dec</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>1986 Jan</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>1986 Feb</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>1986 Mar</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>1986 Apr</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>1986 May</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>1986 Jun</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>1986 Jul</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>1986 Aug</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>1986 Sep</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>1986 Oct</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>1986 Nov</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>1986 Dec</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>1987 Jan</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>1987 Feb</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>1987 Mar</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>1987 Apr</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>1987 May</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>1987 Jun</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>1987 Jul</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>1987 Aug</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>1987 Sep</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>1987 Oct</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>1987 Nov</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>1987 Dec</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>1988 Jan</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>1988 Feb</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>1988 Mar</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>1988 Apr</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>1988 May</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>1988 Jun</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>1988 Jul</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>1988 Aug</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>1988 Sep</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>1988 Oct</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>1988 Nov</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>1988 Dec</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>1989 Jan</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>1989 Feb</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>1989 Mar</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>1989 Apr</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>1989 May</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>1989 Jun</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>1989 Jul</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>1989 Aug</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>1989 Sep</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>1989 Oct</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>1989 Nov</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>1989 Dec</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>1990 Jan</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>1990 Feb</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>1990 Mar</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>1990 Apr</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>1990 May</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>1990 Jun</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>1990 Jul</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>1990 Aug</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>1990 Sep</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>1990 Oct</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>1990 Nov</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>1990 Dec</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>1991 Jan</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>1991 Feb</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>1991 Mar</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>1991 Apr</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>1991 May</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>1991 Jun</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>1991 Jul</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>1991 Aug</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>1991 Sep</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>1991 Oct</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>1991 Nov</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>1991 Dec</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>1992 Jan</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>1992 Feb</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>1992 Mar</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>1992 Apr</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>1992 May</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>1992 Jun</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>1992 Jul</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>1992 Aug</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>1992 Sep</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>1992 Oct</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>1992 Nov</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>1992 Dec</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>1993 Jan</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>1993 Feb</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>1993 Mar</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>1993 Apr</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>1993 May</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>1993 Jun</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>1993 Jul</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>1993 Aug</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>1993 Sep</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>1993 Oct</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>1993 Nov</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>1993 Dec</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>1994 Jan</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>1994 Feb</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>1994 Mar</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>1994 Apr</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>1994 May</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>1994 Jun</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>1994 Jul</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>1994 Aug</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>1994 Sep</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>1994 Oct</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>1994 Nov</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>1994 Dec</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>1995 Jan</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>1995 Feb</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>1995 Mar</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>1995 Apr</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>1995 May</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>1995 Jun</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>1995 Jul</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>1995 Aug</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>1995 Sep</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>1995 Oct</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>1995 Nov</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>1995 Dec</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>1996 Jan</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>1996 Feb</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>1996 Mar</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>1996 Apr</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>1996 May</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>1996 Jun</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>1996 Jul</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>1996 Aug</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>1996 Sep</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>1996 Oct</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>1996 Nov</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>1996 Dec</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>1997 Jan</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>1997 Feb</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
+          <t>1997 Mar</t>
+        </is>
+      </c>
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>1997 Apr</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>1997 May</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>1997 Jun</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>1997 Jul</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
+          <t>1997 Aug</t>
+        </is>
+      </c>
+      <c r="LJ1" s="1" t="inlineStr">
+        <is>
+          <t>1997 Sep</t>
+        </is>
+      </c>
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>1997 Oct</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>1997 Nov</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>1997 Dec</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>1998 Jan</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>1998 Feb</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>1998 Mar</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>1998 Apr</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>1998 May</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>1998 Jun</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>1998 Jul</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>1998 Aug</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>1998 Sep</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>1998 Oct</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>1998 Nov</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>1998 Dec</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Jan</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Feb</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Mar</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Apr</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>1999 May</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Jun</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Jul</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Aug</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Sep</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Oct</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Nov</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Dec</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Jan</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Feb</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Mar</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Apr</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>2000 May</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Jun</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Jul</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Aug</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Sep</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Oct</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Nov</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Dec</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Jan</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Feb</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Mar</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Apr</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>2001 May</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Jun</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Jul</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Aug</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Sep</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Oct</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Nov</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Dec</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Jan</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Feb</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Mar</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Apr</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>2002 May</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Jun</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Jul</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Aug</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Sep</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Oct</t>
+        </is>
+      </c>
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Nov</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Dec</t>
+        </is>
+      </c>
+      <c r="NV1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Jan</t>
+        </is>
+      </c>
+      <c r="NW1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Feb</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Mar</t>
+        </is>
+      </c>
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Apr</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>2003 May</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Jun</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Jul</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Aug</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Sep</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Oct</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Nov</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Dec</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Jan</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Feb</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Mar</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Apr</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>2004 May</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Jun</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Jul</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Aug</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Sep</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Oct</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Nov</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Dec</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Jan</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Feb</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Mar</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Apr</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>2005 May</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Jun</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Jul</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Aug</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Sep</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Oct</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Nov</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Dec</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Jan</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Feb</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Mar</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Apr</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>2006 May</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Jun</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Jul</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Aug</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Sep</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Oct</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Nov</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Dec</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Jan</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Feb</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Mar</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Apr</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>2007 May</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Jun</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Jul</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Aug</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Sep</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Oct</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Nov</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Dec</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Jan</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Feb</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Mar</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Apr</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>2008 May</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Jun</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Jul</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Aug</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Sep</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Oct</t>
+        </is>
+      </c>
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Nov</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Dec</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Jan</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Feb</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Mar</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Apr</t>
+        </is>
+      </c>
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>2009 May</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Jun</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Jul</t>
+        </is>
+      </c>
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Aug</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Sep</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Oct</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Nov</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Dec</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Jan</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Feb</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Mar</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Apr</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>2010 May</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Jun</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Jul</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Aug</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Sep</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Oct</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Nov</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Dec</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Jan</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Feb</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Mar</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Apr</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
+        <is>
+          <t>2011 May</t>
+        </is>
+      </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Jun</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Jul</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Aug</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Sep</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Oct</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Nov</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Dec</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Jan</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Feb</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Mar</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Apr</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
+          <t>2012 May</t>
+        </is>
+      </c>
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Jun</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Jul</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Aug</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Sep</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Oct</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Nov</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Dec</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Jan</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Feb</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Mar</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Apr</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>2013 May</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Jun</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Jul</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Aug</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Sep</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Oct</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Nov</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Dec</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Jan</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Feb</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Mar</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Apr</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>2014 May</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Jun</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Jul</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Aug</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Sep</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Oct</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Nov</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Dec</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Jan</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Feb</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Mar</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Apr</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>2015 May</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Jun</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Jul</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Aug</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Sep</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Oct</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Nov</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Dec</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Jan</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Feb</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Mar</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Apr</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>2016 May</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Jun</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Jul</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Aug</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Sep</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Oct</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Nov</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Dec</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Jan</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Feb</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Mar</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Apr</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>2017 May</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Jun</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Jul</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Aug</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Sep</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Oct</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Nov</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Dec</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Jan</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Feb</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Mar</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Apr</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>2018 May</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Jun</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Jul</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Aug</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Sep</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Oct</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Nov</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Dec</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Jan</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Feb</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Mar</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Apr</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>2019 May</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Jun</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Jul</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Aug</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Sep</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Oct</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Nov</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Dec</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Jan</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Feb</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Mar</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Apr</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>2020 May</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Jun</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Jul</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Aug</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Sep</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Oct</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Nov</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Dec</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Jan</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Feb</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Mar</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Apr</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>2021 May</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Jun</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Jul</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Aug</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Sep</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Oct</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Nov</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Dec</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>2022 Jan</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:611">
-      <c r="A2" s="1" t="s">
-        <v>611</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Gross Circulation</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>830.9</v>
@@ -5882,10 +5274,21 @@
       <c r="WM2" t="n">
         <v>59730.5</v>
       </c>
+      <c r="WN2" t="n">
+        <v>60075.3</v>
+      </c>
+      <c r="WO2" t="n">
+        <v>60508.4</v>
+      </c>
+      <c r="WP2" t="n">
+        <v>62568.3</v>
+      </c>
     </row>
-    <row r="3" spans="1:611">
-      <c r="A3" s="1" t="s">
-        <v>612</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>774.9</v>
@@ -7717,10 +7120,21 @@
       <c r="WM3" t="n">
         <v>58118.3</v>
       </c>
+      <c r="WN3" t="n">
+        <v>58461.2</v>
+      </c>
+      <c r="WO3" t="n">
+        <v>58891.8</v>
+      </c>
+      <c r="WP3" t="n">
+        <v>60948.4</v>
+      </c>
     </row>
-    <row r="4" spans="1:611">
-      <c r="A4" s="1" t="s">
-        <v>613</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Coins</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>56</v>
@@ -9551,6 +8965,15 @@
       </c>
       <c r="WM4" t="n">
         <v>1612.2</v>
+      </c>
+      <c r="WN4" t="n">
+        <v>1614.1</v>
+      </c>
+      <c r="WO4" t="n">
+        <v>1616.6</v>
+      </c>
+      <c r="WP4" t="n">
+        <v>1620</v>
       </c>
     </row>
   </sheetData>
